--- a/Compartments.xlsx
+++ b/Compartments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Daniel\Documents\Civil Engineering\2022-1\Advanced building design\Part 2\Notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Daniel\Documents\Civil Engineering\2022-1\Advanced building design\Part 2\Notebooks\Fire curves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF78FEB4-C86B-4A38-B2CA-1B3E8A035F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF00332-3A6C-4759-AD39-158F7D73645F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1905" windowWidth="20550" windowHeight="11835" xr2:uid="{FD60A0C6-5A3C-4D8A-BA07-19101AFDD8C9}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{FD60A0C6-5A3C-4D8A-BA07-19101AFDD8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Compartment</t>
   </si>
@@ -61,15 +61,9 @@
     <t>Entrance and lounge</t>
   </si>
   <si>
-    <t>Student workplaces</t>
-  </si>
-  <si>
     <t>Auditorium</t>
   </si>
   <si>
-    <t>Office workspaces</t>
-  </si>
-  <si>
     <t>Skybar</t>
   </si>
   <si>
@@ -79,14 +73,17 @@
     <t>Af</t>
   </si>
   <si>
-    <t>Office workspaces 2</t>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>Student/Office workplaces</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +91,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -112,13 +121,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD3FA3E-0DA5-4CE3-9EB3-F316750609C9}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -463,186 +475,167 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>127.5</v>
-      </c>
-      <c r="C2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D2">
-        <v>300</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="1">
+        <v>363.69</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>303</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.02</v>
       </c>
-      <c r="F2">
-        <v>1160</v>
+      <c r="F2" s="1">
+        <v>1365</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>268.86</v>
-      </c>
-      <c r="C3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="1">
+        <v>377.61</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
         <v>200</v>
       </c>
-      <c r="E3">
-        <v>0.04</v>
-      </c>
-      <c r="F3">
-        <v>773</v>
+      <c r="E3" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>813.32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>228.76</v>
-      </c>
-      <c r="C4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="1">
+        <v>328.85</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
         <v>200</v>
       </c>
-      <c r="E4">
-        <v>0.08</v>
-      </c>
-      <c r="F4">
-        <v>773</v>
+      <c r="E4" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>838.42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>417.82</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>150</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>377.61</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="1">
+        <v>851.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>359.55</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>882.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>377.61</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="D8" s="1">
+        <v>200</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="1">
+        <v>821.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>417.82</v>
-      </c>
-      <c r="C5">
-        <v>5.25</v>
-      </c>
-      <c r="D5">
-        <v>150</v>
-      </c>
-      <c r="E5">
-        <v>0.12</v>
-      </c>
-      <c r="F5">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>319.88</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
+      <c r="B9" s="1">
+        <v>286.7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="D9" s="1">
         <v>200</v>
       </c>
-      <c r="E6">
+      <c r="E9" s="1">
         <v>0.02</v>
       </c>
-      <c r="F6">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>420.75</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>150</v>
-      </c>
-      <c r="E7">
-        <v>0.02</v>
-      </c>
-      <c r="F7">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>325</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
-      <c r="E8">
-        <v>0.02</v>
-      </c>
-      <c r="F8">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>423</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>200</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-      <c r="F9">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>420</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
-      <c r="E10">
-        <v>0.12</v>
-      </c>
-      <c r="F10">
-        <v>860</v>
+      <c r="F9" s="1">
+        <v>816.97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>